--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.033717666666667</v>
+        <v>2.441151666666667</v>
       </c>
       <c r="N2">
-        <v>3.101153</v>
+        <v>7.323455</v>
       </c>
       <c r="O2">
-        <v>0.03978942744299106</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="P2">
-        <v>0.03978942744299105</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="Q2">
-        <v>205.686258274761</v>
+        <v>357.9228437663767</v>
       </c>
       <c r="R2">
-        <v>1851.176324472849</v>
+        <v>3221.30559389739</v>
       </c>
       <c r="S2">
-        <v>0.01753883546275717</v>
+        <v>0.04507662498871132</v>
       </c>
       <c r="T2">
-        <v>0.01753883546275717</v>
+        <v>0.04507662498871132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.419726</v>
       </c>
       <c r="O3">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305578</v>
       </c>
       <c r="P3">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305577</v>
       </c>
       <c r="Q3">
-        <v>1420.679113288062</v>
+        <v>1046.856878702279</v>
       </c>
       <c r="R3">
-        <v>12786.11201959256</v>
+        <v>9421.711908320507</v>
       </c>
       <c r="S3">
-        <v>0.1211410884826843</v>
+        <v>0.1318406348182586</v>
       </c>
       <c r="T3">
-        <v>0.1211410884826842</v>
+        <v>0.1318406348182585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H4">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I4">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J4">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5830936666666667</v>
+        <v>0.1123943333333333</v>
       </c>
       <c r="N4">
-        <v>1.749281</v>
+        <v>0.337183</v>
       </c>
       <c r="O4">
-        <v>0.02244419718308089</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="P4">
-        <v>0.02244419718308088</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="Q4">
-        <v>116.022351545097</v>
+        <v>16.47931177697933</v>
       </c>
       <c r="R4">
-        <v>1044.201163905873</v>
+        <v>148.313805992814</v>
       </c>
       <c r="S4">
-        <v>0.009893207989779067</v>
+        <v>0.00207539633186367</v>
       </c>
       <c r="T4">
-        <v>0.009893207989779067</v>
+        <v>0.00207539633186367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H5">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I5">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J5">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.222987</v>
+        <v>11.877011</v>
       </c>
       <c r="N5">
-        <v>51.668961</v>
+        <v>35.631033</v>
       </c>
       <c r="O5">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="P5">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="Q5">
-        <v>3426.981918349257</v>
+        <v>1741.413125047346</v>
       </c>
       <c r="R5">
-        <v>30842.83726514331</v>
+        <v>15672.71812542611</v>
       </c>
       <c r="S5">
-        <v>0.2922182186788645</v>
+        <v>0.2193127031573756</v>
       </c>
       <c r="T5">
-        <v>0.2922182186788646</v>
+        <v>0.2193127031573756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J6">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.033717666666667</v>
+        <v>2.441151666666667</v>
       </c>
       <c r="N6">
-        <v>3.101153</v>
+        <v>7.323455</v>
       </c>
       <c r="O6">
-        <v>0.03978942744299106</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="P6">
-        <v>0.03978942744299105</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="Q6">
-        <v>203.4094565218015</v>
+        <v>480.3568225791728</v>
       </c>
       <c r="R6">
-        <v>1830.685108696213</v>
+        <v>4323.211403212556</v>
       </c>
       <c r="S6">
-        <v>0.01734469292906816</v>
+        <v>0.0604958994075929</v>
       </c>
       <c r="T6">
-        <v>0.01734469292906816</v>
+        <v>0.0604958994075929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J7">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.419726</v>
       </c>
       <c r="O7">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305578</v>
       </c>
       <c r="P7">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305577</v>
       </c>
       <c r="Q7">
         <v>1404.953197893139</v>
@@ -883,10 +883,10 @@
         <v>12644.57878103825</v>
       </c>
       <c r="S7">
-        <v>0.1198001421067511</v>
+        <v>0.1769391072156792</v>
       </c>
       <c r="T7">
-        <v>0.1198001421067511</v>
+        <v>0.1769391072156792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J8">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5830936666666667</v>
+        <v>0.1123943333333333</v>
       </c>
       <c r="N8">
-        <v>1.749281</v>
+        <v>0.337183</v>
       </c>
       <c r="O8">
-        <v>0.02244419718308089</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="P8">
-        <v>0.02244419718308088</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="Q8">
-        <v>114.7380659754335</v>
+        <v>22.11635826364922</v>
       </c>
       <c r="R8">
-        <v>1032.642593778901</v>
+        <v>199.047224372843</v>
       </c>
       <c r="S8">
-        <v>0.009783697157687246</v>
+        <v>0.002785323163718545</v>
       </c>
       <c r="T8">
-        <v>0.009783697157687246</v>
+        <v>0.002785323163718545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J9">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.222987</v>
+        <v>11.877011</v>
       </c>
       <c r="N9">
-        <v>51.668961</v>
+        <v>35.631033</v>
       </c>
       <c r="O9">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="P9">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="Q9">
-        <v>3389.047646490242</v>
+        <v>2337.09496366041</v>
       </c>
       <c r="R9">
-        <v>30501.42881841218</v>
+        <v>21033.8546729437</v>
       </c>
       <c r="S9">
-        <v>0.2889835691786243</v>
+        <v>0.2943325777459714</v>
       </c>
       <c r="T9">
-        <v>0.2889835691786243</v>
+        <v>0.2943325777459714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H10">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.033717666666667</v>
+        <v>2.441151666666667</v>
       </c>
       <c r="N10">
-        <v>3.101153</v>
+        <v>7.323455</v>
       </c>
       <c r="O10">
-        <v>0.03978942744299106</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="P10">
-        <v>0.03978942744299105</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="Q10">
-        <v>57.37004386607757</v>
+        <v>59.01334999799834</v>
       </c>
       <c r="R10">
-        <v>516.3303947946981</v>
+        <v>531.120149981985</v>
       </c>
       <c r="S10">
-        <v>0.004891934776285262</v>
+        <v>0.007432111957971742</v>
       </c>
       <c r="T10">
-        <v>0.004891934776285261</v>
+        <v>0.007432111957971741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H11">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.419726</v>
       </c>
       <c r="O11">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305578</v>
       </c>
       <c r="P11">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305577</v>
       </c>
       <c r="Q11">
-        <v>396.2560441936797</v>
+        <v>172.6029295324713</v>
       </c>
       <c r="R11">
-        <v>3566.304397743117</v>
+        <v>1553.426365792242</v>
       </c>
       <c r="S11">
-        <v>0.03378869166335928</v>
+        <v>0.02173752712907749</v>
       </c>
       <c r="T11">
-        <v>0.03378869166335927</v>
+        <v>0.02173752712907749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H12">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5830936666666667</v>
+        <v>0.1123943333333333</v>
       </c>
       <c r="N12">
-        <v>1.749281</v>
+        <v>0.337183</v>
       </c>
       <c r="O12">
-        <v>0.02244419718308089</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="P12">
-        <v>0.02244419718308088</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="Q12">
-        <v>32.36097274274957</v>
+        <v>2.717064335395667</v>
       </c>
       <c r="R12">
-        <v>291.2487546847461</v>
+        <v>24.453579018561</v>
       </c>
       <c r="S12">
-        <v>0.002759415145720014</v>
+        <v>0.0003421857315057969</v>
       </c>
       <c r="T12">
-        <v>0.002759415145720014</v>
+        <v>0.0003421857315057969</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H13">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.222987</v>
+        <v>11.877011</v>
       </c>
       <c r="N13">
-        <v>51.668961</v>
+        <v>35.631033</v>
       </c>
       <c r="O13">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="P13">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="Q13">
-        <v>955.8543416221809</v>
+        <v>287.119484071279</v>
       </c>
       <c r="R13">
-        <v>8602.689074599628</v>
+        <v>2584.075356641511</v>
       </c>
       <c r="S13">
-        <v>0.08150555202224041</v>
+        <v>0.03615968507134757</v>
       </c>
       <c r="T13">
-        <v>0.08150555202224041</v>
+        <v>0.03615968507134757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H14">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.033717666666667</v>
+        <v>2.441151666666667</v>
       </c>
       <c r="N14">
-        <v>3.101153</v>
+        <v>7.323455</v>
       </c>
       <c r="O14">
-        <v>0.03978942744299106</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="P14">
-        <v>0.03978942744299105</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="Q14">
-        <v>0.163765687624</v>
+        <v>1.321163487758334</v>
       </c>
       <c r="R14">
-        <v>1.473891188616</v>
+        <v>11.890471389825</v>
       </c>
       <c r="S14">
-        <v>1.396427488046278E-05</v>
+        <v>0.0001663866727806066</v>
       </c>
       <c r="T14">
-        <v>1.396427488046278E-05</v>
+        <v>0.0001663866727806066</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H15">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.419726</v>
       </c>
       <c r="O15">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305578</v>
       </c>
       <c r="P15">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305577</v>
       </c>
       <c r="Q15">
-        <v>1.131132890608</v>
+        <v>3.864154269943334</v>
       </c>
       <c r="R15">
-        <v>10.180196015472</v>
+        <v>34.77738842949</v>
       </c>
       <c r="S15">
-        <v>9.645152681218744E-05</v>
+        <v>0.0004866496675424717</v>
       </c>
       <c r="T15">
-        <v>9.645152681218741E-05</v>
+        <v>0.0004866496675424716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H16">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.5830936666666667</v>
+        <v>0.1123943333333333</v>
       </c>
       <c r="N16">
-        <v>1.749281</v>
+        <v>0.337183</v>
       </c>
       <c r="O16">
-        <v>0.02244419718308089</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="P16">
-        <v>0.02244419718308088</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="Q16">
-        <v>0.09237603104800002</v>
+        <v>0.06082837517166667</v>
       </c>
       <c r="R16">
-        <v>0.8313842794320001</v>
+        <v>0.547455376545</v>
       </c>
       <c r="S16">
-        <v>7.876889894555609E-06</v>
+        <v>7.660695325933359E-06</v>
       </c>
       <c r="T16">
-        <v>7.876889894555608E-06</v>
+        <v>7.660695325933359E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H17">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.222987</v>
+        <v>11.877011</v>
       </c>
       <c r="N17">
-        <v>51.668961</v>
+        <v>35.631033</v>
       </c>
       <c r="O17">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="P17">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="Q17">
-        <v>2.728534492488</v>
+        <v>6.427897738255001</v>
       </c>
       <c r="R17">
-        <v>24.556810432392</v>
+        <v>57.85107964429501</v>
       </c>
       <c r="S17">
-        <v>0.0002326617145919311</v>
+        <v>0.0008095262452771263</v>
       </c>
       <c r="T17">
-        <v>0.0002326617145919311</v>
+        <v>0.0008095262452771263</v>
       </c>
     </row>
   </sheetData>
